--- a/library/ob_export.xlsx
+++ b/library/ob_export.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E94BF7A-829B-46ED-9F34-C24AB77CB27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E44D50F6-4910-4DA8-BD21-C4E96BB5A43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23205" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23205" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -129,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +172,7 @@
       <b/>
       <shadow/>
       <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
@@ -225,13 +222,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,6 +244,297 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1045" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65C24B2B-EE05-42C4-86FA-57F446D4B970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="714375" y="314325"/>
+          <a:ext cx="1009650" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1046" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6483D9C7-45CC-4430-A265-2B77D12BFE67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="400050"/>
+          <a:ext cx="1247775" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1047" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C347583-7C15-4676-A617-0B8417A28159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="714375" y="7591425"/>
+          <a:ext cx="1009650" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1048" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D8004A5-807B-43B9-AF0B-07F00170B396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6438900" y="7677150"/>
+          <a:ext cx="1247775" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,14 +833,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,8 +949,8 @@
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -677,8 +965,8 @@
       <c r="I13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -717,9 +1005,9 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="1" t="s">
         <v>3</v>
       </c>
@@ -732,12 +1020,12 @@
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -763,21 +1051,21 @@
         <v>5</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="15"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -799,21 +1087,21 @@
         <v>1</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -882,12 +1170,12 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -1130,8 +1418,8 @@
       <c r="I49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1146,8 +1434,8 @@
       <c r="I50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1186,9 +1474,9 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
       <c r="I53" s="1" t="s">
         <v>3</v>
       </c>
@@ -1201,12 +1489,12 @@
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1232,21 +1520,21 @@
         <v>5</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="11"/>
       <c r="I56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="15" t="s">
+      <c r="K56" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L56" s="15"/>
+      <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
@@ -1268,21 +1556,21 @@
         <v>1</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="15" t="s">
+      <c r="K58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="15"/>
+      <c r="L58" s="14"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
@@ -1351,12 +1639,12 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="15" t="s">
+      <c r="I63" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
@@ -1502,6 +1790,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="K58:L58"/>
     <mergeCell ref="I63:L63"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="D21:F21"/>
@@ -1510,18 +1808,9 @@
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="F53:H53"/>
     <mergeCell ref="C54:H54"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="D19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/library/ob_export.xlsx
+++ b/library/ob_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A56EA2-BC85-4D90-8389-90DA21F09D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574D989B-523D-4986-81B2-EC4B72AE2280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23205" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22815" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Tel: (049)8274755/(049)8274587/(049)8274560 •  Fax: (049) 8274745</t>
-  </si>
-  <si>
     <t>Email: dilgcalabarzon@yahoo.com   •  Website: www.calabarzon.dilg.gov.ph</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>to leave the office for the following  purpose (s):</t>
+  </si>
+  <si>
+    <t>Tel: (049) 827-4587; (049) 827-4560; (049) 827-3143</t>
   </si>
 </sst>
 </file>
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -221,13 +221,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -239,21 +233,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,8 +764,8 @@
   </sheetPr>
   <dimension ref="A2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +840,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -848,7 +851,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -872,8 +875,8 @@
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -888,8 +891,8 @@
       <c r="I13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -926,28 +929,28 @@
         <v>2</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="H16" s="9"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -970,21 +973,21 @@
         <v>3</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="11"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -1006,21 +1009,21 @@
         <v>1</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1089,16 +1092,16 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="I26" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="4"/>
@@ -1114,7 +1117,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="4"/>
@@ -1144,12 +1147,12 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F30" s="4"/>
@@ -1169,7 +1172,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J31" s="4"/>
@@ -1185,12 +1188,12 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="I32" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -1201,11 +1204,11 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1217,16 +1220,16 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="4"/>
@@ -1304,7 +1307,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -1315,7 +1318,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -1339,8 +1342,8 @@
       <c r="I49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1355,8 +1358,8 @@
       <c r="I50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1393,37 +1396,39 @@
         <v>2</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="H53" s="9"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="13"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="11"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
       <c r="L54" s="4"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -1435,34 +1440,34 @@
         <v>3</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="11"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="20" t="s">
+      <c r="K56" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L56" s="20"/>
+      <c r="L56" s="22"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
       <c r="L57" s="4"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1471,21 +1476,21 @@
         <v>1</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J58" s="4"/>
-      <c r="K58" s="20" t="s">
+      <c r="K58" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L58" s="20"/>
+      <c r="L58" s="22"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
@@ -1554,16 +1559,16 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="I63" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="4"/>
@@ -1579,7 +1584,7 @@
     </row>
     <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="4"/>
@@ -1609,12 +1614,12 @@
     </row>
     <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="15" t="s">
+      <c r="B67" s="12"/>
+      <c r="C67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="14"/>
-      <c r="E67" s="15" t="s">
+      <c r="D67" s="12"/>
+      <c r="E67" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F67" s="4"/>
@@ -1634,7 +1639,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="13" t="s">
+      <c r="I68" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J68" s="4"/>
@@ -1650,12 +1655,12 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="I69" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
@@ -1666,11 +1671,11 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="21" t="s">
+      <c r="I70" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
       <c r="L70" s="4"/>
     </row>
     <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1682,16 +1687,16 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="22" t="s">
+      <c r="I71" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="4"/>
@@ -1706,14 +1711,7 @@
       <c r="L72" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C17:H17"/>
+  <mergeCells count="24">
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="I69:L69"/>
@@ -1729,9 +1727,18 @@
     <mergeCell ref="D58:F58"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B54:K54"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="72" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>